--- a/landing page.xlsx
+++ b/landing page.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\iCloudDrive\Gavil\Cultura\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\gavil\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDCE550F-6A88-433E-883A-81A4AE187E8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{547A42D3-2D0D-4AC3-AF3C-AE0390BA449B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="1" xr2:uid="{699529F7-86D4-47A8-A502-8AEAEB15D308}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" firstSheet="1" activeTab="2" xr2:uid="{699529F7-86D4-47A8-A502-8AEAEB15D308}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" state="hidden" r:id="rId1"/>
@@ -469,7 +469,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -479,28 +479,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -514,6 +494,24 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -929,8 +927,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72F91670-4EDF-4E34-8F81-763F27272109}">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -947,21 +945,21 @@
       <c r="B2" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="7"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="20"/>
     </row>
     <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="10"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="17"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -1070,8 +1068,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC75D18D-0F93-4130-91AC-273E34F20FAA}">
   <dimension ref="B1:H21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1081,218 +1079,202 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
     </row>
     <row r="2" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="25"/>
-      <c r="F3" s="23" t="s">
+      <c r="C3" s="22"/>
+      <c r="D3" s="23"/>
+      <c r="F3" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="24"/>
-      <c r="H3" s="25"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="23"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="19">
+      <c r="B4" s="11">
         <v>1</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="13"/>
-      <c r="F4" s="19">
+      <c r="D4" s="6"/>
+      <c r="F4" s="11">
         <v>1</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="13"/>
+      <c r="H4" s="6"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="19">
+      <c r="B5" s="11">
         <v>2</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="13"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="13"/>
+      <c r="D5" s="6"/>
+      <c r="F5" s="5"/>
+      <c r="H5" s="6"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="19">
+      <c r="B6" s="11">
         <v>3</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="11"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="13"/>
+      <c r="F6" s="5"/>
+      <c r="H6" s="6"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="19"/>
-      <c r="C7" s="14" t="s">
+      <c r="B7" s="11"/>
+      <c r="C7" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="11"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="13"/>
+      <c r="F7" s="5"/>
+      <c r="H7" s="6"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="19"/>
-      <c r="C8" s="12" t="s">
+      <c r="B8" s="11"/>
+      <c r="C8" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="13"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="13"/>
+      <c r="D8" s="6"/>
+      <c r="F8" s="5"/>
+      <c r="H8" s="6"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="19"/>
-      <c r="C9" s="12" t="s">
+      <c r="B9" s="11"/>
+      <c r="C9" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="13"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="13"/>
+      <c r="D9" s="6"/>
+      <c r="F9" s="5"/>
+      <c r="H9" s="6"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="19"/>
-      <c r="C10" s="12" t="s">
+      <c r="B10" s="11"/>
+      <c r="C10" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="13"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="13"/>
+      <c r="D10" s="6"/>
+      <c r="F10" s="5"/>
+      <c r="H10" s="6"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="19"/>
-      <c r="C11" s="12" t="s">
+      <c r="B11" s="11"/>
+      <c r="C11" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="13"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="13"/>
+      <c r="D11" s="6"/>
+      <c r="F11" s="5"/>
+      <c r="H11" s="6"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="19"/>
-      <c r="C12" s="14" t="s">
+      <c r="B12" s="11"/>
+      <c r="C12" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="13"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="13"/>
+      <c r="D12" s="6"/>
+      <c r="F12" s="5"/>
+      <c r="H12" s="6"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="19"/>
-      <c r="C13" s="14" t="s">
+      <c r="B13" s="11"/>
+      <c r="C13" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="13"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="13"/>
+      <c r="D13" s="6"/>
+      <c r="F13" s="5"/>
+      <c r="H13" s="6"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="19"/>
-      <c r="C14" s="12" t="s">
+      <c r="B14" s="11"/>
+      <c r="C14" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="13"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="13"/>
+      <c r="D14" s="6"/>
+      <c r="F14" s="5"/>
+      <c r="H14" s="6"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="19"/>
-      <c r="C15" s="12" t="s">
+      <c r="B15" s="11"/>
+      <c r="C15" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="13"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="13"/>
+      <c r="D15" s="6"/>
+      <c r="F15" s="5"/>
+      <c r="H15" s="6"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="19"/>
-      <c r="C16" s="12" t="s">
+      <c r="B16" s="11"/>
+      <c r="C16" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="13"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="13"/>
+      <c r="D16" s="6"/>
+      <c r="F16" s="5"/>
+      <c r="H16" s="6"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="19"/>
-      <c r="C17" s="12" t="s">
+      <c r="B17" s="11"/>
+      <c r="C17" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="13"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="13"/>
+      <c r="D17" s="6"/>
+      <c r="F17" s="5"/>
+      <c r="H17" s="6"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="19"/>
-      <c r="C18" s="12" t="s">
+      <c r="B18" s="11"/>
+      <c r="C18" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="13"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="13"/>
+      <c r="D18" s="6"/>
+      <c r="F18" s="5"/>
+      <c r="H18" s="6"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="19"/>
-      <c r="C19" s="12" t="s">
+      <c r="B19" s="11"/>
+      <c r="C19" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="13"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="13"/>
+      <c r="D19" s="6"/>
+      <c r="F19" s="5"/>
+      <c r="H19" s="6"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="19"/>
-      <c r="C20" s="15" t="s">
+      <c r="B20" s="11"/>
+      <c r="C20" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="13"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="13"/>
+      <c r="D20" s="6"/>
+      <c r="F20" s="5"/>
+      <c r="H20" s="6"/>
     </row>
     <row r="21" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="20"/>
-      <c r="C21" s="17" t="s">
+      <c r="B21" s="12"/>
+      <c r="C21" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D21" s="18"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="18"/>
+      <c r="D21" s="10"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="2">
